--- a/tbs_template/template_buku_besar_semua.xlsx
+++ b/tbs_template/template_buku_besar_semua.xlsx
@@ -100,13 +100,13 @@
     <t xml:space="preserve">[v.uraian;block=tbs:row]</t>
   </si>
   <si>
-    <t xml:space="preserve">[v.debet]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[v.kredit]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[v.saldo]</t>
+    <t xml:space="preserve">[v.debet1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[v.kredit1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[v.saldo1]</t>
   </si>
   <si>
     <t xml:space="preserve">[p.debet]</t>
@@ -121,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -276,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -284,12 +284,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,6 +305,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +317,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,11 +333,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,11 +345,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,14 +361,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,11 +385,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +397,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,266 +498,266 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="79.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="2" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="8" s="11" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" s="18" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+    <row r="10" s="18" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="21"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="23"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
